--- a/StructureDefinition-ext-R5-ResearchStudy.recruitment.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.recruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -340,7 +340,7 @@
     <t>Estimated total number of participants to be enrolled.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment.targetNumber` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+    <t>Element `ResearchStudy.recruitment.targetNumber` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:targetNumber.id</t>
@@ -422,7 +422,7 @@
     <t>Actual total number of participants enrolled in study.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment.actualNumber` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+    <t>Element `ResearchStudy.recruitment.actualNumber` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:actualNumber.id</t>
@@ -449,7 +449,8 @@
     <t>Inclusion and exclusion criteria.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment.eligibility` is mapped to FHIR R4 element `ResearchStudy.enrollment`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.recruitment.eligibility` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ResearchStudy.recruitment.eligibility` is mapped to FHIR R4 element `ResearchStudy.enrollment`.</t>
   </si>
   <si>
     <t>Extension.extension:eligibility.id</t>
@@ -480,7 +481,8 @@
     <t>Group of participants who were enrolled in study.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment.actualGroup` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.recruitment.actualGroup` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ResearchStudy.recruitment.actualGroup` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:actualGroup.id</t>
@@ -846,7 +848,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="111.7890625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="204.31640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ResearchStudy.recruitment.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.recruitment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `ResearchStudy` 0..* `ResearchStudy`
 *  R4: `ResearchStudy` 0..* `ResearchStudy`
 Following are the generation technical comments:
-Element `ResearchStudy.recruitment` is mapped to FHIR R4 element `ResearchStudy`.</t>
+Element `ResearchStudy.recruitment` has is mapped to FHIR R4 element `ResearchStudy`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,8 @@
     <t>Estimated total number of participants to be enrolled.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment.targetNumber` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.recruitment.targetNumber` is part of an existing definition because parent element `ResearchStudy.recruitment` requires a cross-version extension.
+Element `ResearchStudy.recruitment.targetNumber` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:targetNumber.id</t>
@@ -387,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment.targetNumber</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -422,7 +426,8 @@
     <t>Actual total number of participants enrolled in study.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment.actualNumber` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.recruitment.actualNumber` is part of an existing definition because parent element `ResearchStudy.recruitment` requires a cross-version extension.
+Element `ResearchStudy.recruitment.actualNumber` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:actualNumber.id</t>
@@ -434,6 +439,9 @@
     <t>Extension.extension:actualNumber.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment.actualNumber</t>
+  </si>
+  <si>
     <t>Extension.extension:actualNumber.value[x]</t>
   </si>
   <si>
@@ -449,8 +457,9 @@
     <t>Inclusion and exclusion criteria.</t>
   </si>
   <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.recruitment.eligibility` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ResearchStudy.recruitment.eligibility` is mapped to FHIR R4 element `ResearchStudy.enrollment`.</t>
+    <t>Element `ResearchStudy.recruitment.eligibility` is part of an existing definition because parent element `ResearchStudy.recruitment` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.recruitment.eligibility` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ResearchStudy.recruitment.eligibility` has is mapped to FHIR R4 element `ResearchStudy.enrollment`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:eligibility.id</t>
@@ -460,6 +469,9 @@
   </si>
   <si>
     <t>Extension.extension:eligibility.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment.eligibility</t>
   </si>
   <si>
     <t>Extension.extension:eligibility.value[x]</t>
@@ -481,8 +493,9 @@
     <t>Group of participants who were enrolled in study.</t>
   </si>
   <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.recruitment.actualGroup` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ResearchStudy.recruitment.actualGroup` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.recruitment.actualGroup` is part of an existing definition because parent element `ResearchStudy.recruitment` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.recruitment.actualGroup` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ResearchStudy.recruitment.actualGroup` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:actualGroup.id</t>
@@ -492,6 +505,9 @@
   </si>
   <si>
     <t>Extension.extension:actualGroup.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment.actualGroup</t>
   </si>
   <si>
     <t>Extension.extension:actualGroup.value[x]</t>
@@ -1654,7 +1670,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1696,7 +1712,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1711,15 +1727,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1742,7 +1758,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1799,7 +1815,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1811,21 +1827,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1850,14 +1866,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1926,7 +1942,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2029,7 +2045,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2134,7 +2150,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2177,7 +2193,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2219,7 +2235,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2234,15 +2250,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2265,13 +2281,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2322,7 +2338,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2334,21 +2350,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2373,14 +2389,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2449,7 +2465,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2552,7 +2568,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2657,7 +2673,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2700,7 +2716,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2742,7 +2758,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -2757,15 +2773,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2788,13 +2804,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2845,7 +2861,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2857,21 +2873,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2896,14 +2912,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2972,7 +2988,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3075,7 +3091,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3180,7 +3196,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3223,7 +3239,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3265,7 +3281,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3280,15 +3296,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3311,13 +3327,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3368,7 +3384,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3380,18 +3396,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3473,7 +3489,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -3488,15 +3504,15 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3519,13 +3535,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3576,7 +3592,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3588,10 +3604,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ResearchStudy.recruitment.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.recruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -477,7 +477,7 @@
     <t>Extension.extension:eligibility.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable)
 </t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>Extension.extension:actualGroup.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-ResearchStudy.recruitment.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.recruitment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `ResearchStudy` 0..* `ResearchStudy`
 *  R4: `ResearchStudy` 0..* `ResearchStudy`
 Following are the generation technical comments:
-Element `ResearchStudy.recruitment` has is mapped to FHIR R4 element `ResearchStudy`, but has no comparisons.</t>
+Element `ResearchStudy.recruitment` is mapped to FHIR R4 element `ResearchStudy` as `SourceIsNarrowerThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>Estimated total number of participants to be enrolled.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment.targetNumber` is part of an existing definition because parent element `ResearchStudy.recruitment` requires a cross-version extension.
-Element `ResearchStudy.recruitment.targetNumber` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.recruitment.targetNumber` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:targetNumber.id</t>
@@ -388,9 +387,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment.targetNumber</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -426,8 +422,7 @@
     <t>Actual total number of participants enrolled in study.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment.actualNumber` is part of an existing definition because parent element `ResearchStudy.recruitment` requires a cross-version extension.
-Element `ResearchStudy.recruitment.actualNumber` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.recruitment.actualNumber` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:actualNumber.id</t>
@@ -439,9 +434,6 @@
     <t>Extension.extension:actualNumber.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment.actualNumber</t>
-  </si>
-  <si>
     <t>Extension.extension:actualNumber.value[x]</t>
   </si>
   <si>
@@ -457,9 +449,8 @@
     <t>Inclusion and exclusion criteria.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment.eligibility` is part of an existing definition because parent element `ResearchStudy.recruitment` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.recruitment.eligibility` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ResearchStudy.recruitment.eligibility` has is mapped to FHIR R4 element `ResearchStudy.enrollment`, but has no comparisons.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.recruitment.eligibility` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ResearchStudy.recruitment.eligibility` is mapped to FHIR R4 element `ResearchStudy.enrollment` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:eligibility.id</t>
@@ -471,13 +462,10 @@
     <t>Extension.extension:eligibility.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment.eligibility</t>
-  </si>
-  <si>
     <t>Extension.extension:eligibility.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1)
 </t>
   </si>
   <si>
@@ -493,8 +481,7 @@
     <t>Group of participants who were enrolled in study.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.recruitment.actualGroup` is part of an existing definition because parent element `ResearchStudy.recruitment` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.recruitment.actualGroup` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.recruitment.actualGroup` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `ResearchStudy.recruitment.actualGroup` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
@@ -507,13 +494,10 @@
     <t>Extension.extension:actualGroup.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment.actualGroup</t>
-  </si>
-  <si>
     <t>Extension.extension:actualGroup.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -1670,72 +1654,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1758,7 +1742,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1815,33 +1799,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1866,14 +1850,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1942,7 +1926,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2045,7 +2029,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2150,7 +2134,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2193,7 +2177,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2235,30 +2219,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2281,13 +2265,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2338,33 +2322,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2389,14 +2373,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2465,7 +2449,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2568,7 +2552,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2673,7 +2657,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2716,7 +2700,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2758,30 +2742,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2804,13 +2788,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2861,33 +2845,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2912,14 +2896,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2988,7 +2972,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3091,7 +3075,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3196,7 +3180,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3239,7 +3223,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3281,30 +3265,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3327,13 +3311,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3384,30 +3368,30 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3489,30 +3473,30 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3535,13 +3519,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3592,22 +3576,22 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
